--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,6 +2061,1507 @@
         <v>0.6666666666666666</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6203703703703703</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6574074074074074</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6574074074074074</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6018518518518519</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6574074074074074</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5462962962962963</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6018518518518519</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5648148148148148</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.4930555555555556</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6203703703703703</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6018518518518519</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4537037037037037</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5462962962962963</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>05smote.csv</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4907407407407408</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6203703703703703</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5612244897959183</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6224489795918368</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7384615384615385</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.5923076923076923</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6384615384615384</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.6230769230769231</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5615384615384615</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6224489795918368</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.6846153846153846</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8307692307692308</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.6230769230769231</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.6076923076923076</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5923076923076923</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7538461538461538</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.6230769230769231</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7244897959183674</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.6692307692307692</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7846153846153846</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6224489795918368</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.6384615384615384</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5204081632653061</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7461538461538462</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.6692307692307692</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6020408163265306</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6224489795918368</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5204081632653061</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7153846153846154</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7230769230769231</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6846153846153846</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5816326530612245</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6224489795918368</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.7153846153846154</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.4769230769230769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3562,6 +3562,85 @@
         <v>0.4769230769230769</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>06smote.csv</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5204081632653061</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5816326530612245</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6076923076923076</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.6230769230769231</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
